--- a/martin-cs7/build/game_my_interventions.xlsx
+++ b/martin-cs7/build/game_my_interventions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/martin-cs7/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F269F-62E4-2240-996B-C53C9F3779D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8423C7-7AF5-0A44-8050-9C163E469F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="8260" windowWidth="35780" windowHeight="17500" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="10180" yWindow="14660" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="283">
   <si>
     <t>type</t>
   </si>
@@ -138,39 +138,6 @@
   </si>
   <si>
     <t>beavers.jpg</t>
-  </si>
-  <si>
-    <t>Economic Event</t>
-  </si>
-  <si>
-    <t>Biodiversity Event</t>
-  </si>
-  <si>
-    <t>Flood Event</t>
-  </si>
-  <si>
-    <t>Drought Event</t>
-  </si>
-  <si>
-    <t>Heat Event</t>
-  </si>
-  <si>
-    <t>Economic Event Outcomes</t>
-  </si>
-  <si>
-    <t>Biodiversity Event Outcomes</t>
-  </si>
-  <si>
-    <t>Flood Event Outcomes</t>
-  </si>
-  <si>
-    <t>Drought Event Outcomes</t>
-  </si>
-  <si>
-    <t>Heat Event Outcomes</t>
-  </si>
-  <si>
-    <t>Extreme Event</t>
   </si>
   <si>
     <t>ID</t>
@@ -194,27 +161,6 @@
     <t>desc-1</t>
   </si>
   <si>
-    <t>Minor Event</t>
-  </si>
-  <si>
-    <t>Average Event</t>
-  </si>
-  <si>
-    <t>What are economic events?</t>
-  </si>
-  <si>
-    <t>What are flood events?</t>
-  </si>
-  <si>
-    <t>What are biodiversity events?</t>
-  </si>
-  <si>
-    <t>What are drought events?</t>
-  </si>
-  <si>
-    <t>What are heat events?</t>
-  </si>
-  <si>
     <t>Approve a fish farm</t>
   </si>
   <si>
@@ -811,21 +757,10 @@
     <t>A local diary farm has a storage failure, releasing milk into the local river, killing all the fish. Whilst the leak is repaired quickly and the dead fish removed, it takes considerable time for the river to return to pristine condition.</t>
   </si>
   <si>
-    <t xml:space="preserve">Flood events occur when there is water in places where water shouldn't be, and can occur from excessive rainfall, storm surges, or man-made flooding. Flooding causes damage in two main ways, firstly from water damage and then secondly from the debris and waste left by receding water
- </t>
-  </si>
-  <si>
     <t>It's been raining more than expected for the time of year and the ground has become sodden, resulting in localised flooding. This impacts local people and businesses and takes resources to clean up once the flood water recedes.</t>
   </si>
   <si>
     <t>The town has a drier winter than expected, resulting in the main supply reservoirs being low, and a dry spring. By summer, the water board is restricting water use to essential activities only.</t>
-  </si>
-  <si>
-    <t>The town appears to be in a climate change where it no longer rains like it used to, resulting in the town becoming drier and browner, and making water a scares resource.
-Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodiversity events occur when the fauna and or flora of an environment is threatened by external sources. Typically, this may occur as a side effect of industrial pollution, or the introduction of non indigenous flora and fauna. </t>
   </si>
   <si>
     <t>For the last year or so the town has been experiencing lower rainfall than typical. It was hoped that last year's low rainfall was a blip, but it's being repeated this year.
@@ -911,20 +846,10 @@
 People feel that the municipality has 'really dropped the ball' with their drought planning, and it's expected that the mayor will resign.</t>
   </si>
   <si>
-    <t>Economic events occur when there is a loss of confidence in the economy. This can be seen as a reduction in investment, leading company closures,  job losses, and a general reduction in consumer spending . 
-Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
-  </si>
-  <si>
     <t>The region has been absolutely battered by a once in a lifetime storm that has dumped unprecedented amounts of rain in the region, causing huge amount of damage. Rebuilding will take time and effort.
 Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
   </si>
   <si>
-    <t>Drought events occur when provisions for water consumption are not met. Typically, this can be a lack of rain, either locally or remotely, as a lack of rain in to the ground water and rivers that feed the town. Droughts can be short term, as a lack of rainfall, or longer term in the retreat of water bodies.</t>
-  </si>
-  <si>
-    <t>Heat waves occur when there is a prolonged period of local excess heat as a sequence of unusually hot days and nights. Heat waves amplify many risks, such as health related or economic risks, including increased human mortality, drought and water quality, wildfire and smoke, power shortages and agricultural losses.</t>
-  </si>
-  <si>
     <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
 People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
   </si>
@@ -976,6 +901,75 @@
   </si>
   <si>
     <t>student2.jpg</t>
+  </si>
+  <si>
+    <t>The town appears to be affected by climate change that the rainfall has reduced significantly. Resulting in the town becoming drier and browner,and making water a scarse resource.
+Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
+  </si>
+  <si>
+    <t>Minor Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Average Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Extreme Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Economic Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Biodiversity Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Flood Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Drought Resilience Challenge</t>
+  </si>
+  <si>
+    <t>Heat Resilience Challenge</t>
+  </si>
+  <si>
+    <t>What are heat resilience challenges?</t>
+  </si>
+  <si>
+    <t>What are drought resilience challenges?</t>
+  </si>
+  <si>
+    <t>What are flood resilience challenges?</t>
+  </si>
+  <si>
+    <t>What are biodiversity resilience challenges?</t>
+  </si>
+  <si>
+    <t>What are economic resilience challenges?</t>
+  </si>
+  <si>
+    <t>Economic resilience challenges occur when there is a loss of confidence in the economy. This can be seen as a reduction in investment, leading company closures,  job losses, and a general reduction in consumer spending . 
+Severity is a product of impact and duration; extreme events will be deeper and longer than mild ones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biodiversity resilience challenges occur when the fauna and or flora of an environment is threatened by external sources. Typically, this may occur as a side effect of industrial pollution, or the introduction of non indigenous flora and fauna. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood resilience challenges occur when there is water in places where water shouldn't be, and can occur from excessive rainfall, storm surges, or man-made flooding. Flooding causes damage in two main ways, firstly from water damage and then secondly from the debris and waste left by receding water
+ </t>
+  </si>
+  <si>
+    <t>Drought resilience challenges occur when provisions for water consumption are not met. Typically, droughts are  caused by insufficient water resources availability due to reduced precipitation over a period of time, or long-term over-exploitation of surface water and groundwater.</t>
+  </si>
+  <si>
+    <t>Heat resilience challenges occur when there is a prolonged period of local excess heat as a sequence of unusually hot days and nights. Heat waves amplify many risks, such as health related or economic risks, including increased human mortality, drought and water quality, wildfire and smoke, power shortages and agricultural losses.</t>
+  </si>
+  <si>
+    <t>Resilience Challenge Outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project has received funding from the European Union’s Horizon H2020 innovation action programme under grant agreement 101037424. </t>
+  </si>
+  <si>
+    <t>H2020_HEADER</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1448,10 +1442,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,7 +1453,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
@@ -1470,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -1481,7 +1475,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>27</v>
@@ -1492,7 +1486,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1503,7 +1497,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>31</v>
@@ -1520,10 +1514,10 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1593,46 +1587,46 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1640,46 +1634,46 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1687,93 +1681,93 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1781,46 +1775,46 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="M6" s="5" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1834,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B148F3-02D7-D940-95BD-CF9D568C1F1D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1848,18 +1842,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>14</v>
@@ -1943,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1965,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -1985,10 +1987,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -2007,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2027,13 +2029,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2051,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2071,13 +2073,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2095,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2115,13 +2117,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2139,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2159,13 +2161,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2183,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2203,10 +2205,10 @@
         <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2225,19 +2227,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2245,10 +2247,10 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2267,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2287,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2309,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2329,10 +2331,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2351,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2371,10 +2373,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2393,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2413,10 +2415,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2435,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2455,10 +2457,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2477,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2497,10 +2499,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2519,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2539,10 +2541,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2581,10 +2583,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
@@ -2623,10 +2625,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2645,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>32</v>
@@ -2665,10 +2667,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2687,19 +2689,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2707,10 +2709,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2729,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2749,13 +2751,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2773,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2793,13 +2795,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2817,19 +2819,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2837,13 +2839,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2861,19 +2863,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2881,10 +2883,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2902,19 +2904,19 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -2922,13 +2924,13 @@
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2946,19 +2948,19 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2966,13 +2968,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2990,19 +2992,19 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3010,10 +3012,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -3031,19 +3033,19 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,10 +3053,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -3072,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -3092,10 +3094,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3113,19 +3115,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/martin-cs7/build/game_my_interventions.xlsx
+++ b/martin-cs7/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/martin-cs7/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8423C7-7AF5-0A44-8050-9C163E469F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD5E1BC-4557-1449-BA44-3E755423861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="14660" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="-3780" yWindow="5860" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -771,58 +771,6 @@
 Residents and businesses are starting to get nervous about the future.</t>
   </si>
   <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their economic resilience planning.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to flooding. As the town floods, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their flood resilience planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the event, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their actions.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the heat wave,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their actions.</t>
-  </si>
-  <si>
-    <t>The town has been clearly impacted by the drought, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their drought planning.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the drought,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their drought planning.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the flood, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their flood planning.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the flood,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people.
-People feel that the municipality has 'got it right' with their flood planning.</t>
-  </si>
-  <si>
-    <t>The town has been impacted by the event, with much work to do to recover the town's fauna and flora, and the people and businesses that are involved.
-People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their biodiversity resilience.</t>
-  </si>
-  <si>
-    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the town's fauna and flora and the people and businesses that are involved.
-People feel that the municipality has 'got it right' with their  biodiversity resilience.</t>
-  </si>
-  <si>
     <t>The town has been battered by multiple winter storms, with each storm causing flooding that the town is struggling to recover from before being hit by the next one.
 Residents and businesses are starting to get nervous about the future.</t>
   </si>
@@ -842,18 +790,10 @@
     <t>A global credit crunch, economic decisions in a country far, far, away impact the town's economy by removing money from the economy. This results in some international companies closing their operations in the town, increased costs for goods and services and a reluctance by people to spend their limited cash.</t>
   </si>
   <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to fluctuations in its water supply. As the town's water reserves dwindle, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their drought planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
     <t>The region has been absolutely battered by a once in a lifetime storm that has dumped unprecedented amounts of rain in the region, causing huge amount of damage. Rebuilding will take time and effort.
 Some residents and businesses are now looking to move away to areas that have a better quality of life.</t>
   </si>
   <si>
-    <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse.
-People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
-  </si>
-  <si>
     <t>firebreaks.jpeg</t>
   </si>
   <si>
@@ -970,6 +910,51 @@
   </si>
   <si>
     <t>H2020_HEADER</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to environmental pollution, and there appears to be nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their biodiversity resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the event, with much work to do to recover the town's fauna and flora, and the people and businesses that are involved. People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their biodiversity resilience.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the town's fauna and flora and the people and businesses that are involved. People feel that the municipality has 'got it right' with their  biodiversity resilience.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to flooding. As the town floods, there appears to be nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their flood resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the flood, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships. People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their flood planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the flood,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people. People feel that the municipality has 'got it right' with their flood planning.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to fluctuations in its water supply. As the town's water reserves dwindle, there appears to be nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their drought planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been clearly impacted by the drought, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships. People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their drought planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the drought,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people. People feel that the municipality has 'got it right' with their drought planning.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to heat waves. As the town suffers in the heat, there appears to be nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their heat wave planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the event, with much work to do to recover the town's infrastructure with some knock on business failures and many residents reporting  hardships. People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their actions.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the heat wave,  they tend to be small in nature and there are no major causalities. This is a huge relief for the local businesses and towns people. People feel that the municipality has 'got it right' with their actions.</t>
+  </si>
+  <si>
+    <t>The decisions made by the municipality have made the town highly sensitive to economic events. As companies close and jobs are lost, there is nothing in place for the residents of the town, making a bad situation much worse. People feel that the municipality has 'really dropped the ball' with their economic resilience planning, and it's expected that the mayor will resign.</t>
+  </si>
+  <si>
+    <t>The town has been impacted by the economic event with some knock on business failures and many residents reporting financial hardship. People feel that things could have been worse, but they could have been a lot better. There's a sense that the  municipality has 'fumbled it' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people. People feel that the municipality has 'got it right' with their economic resilience planning.</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1430,7 @@
         <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,11 +1498,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1587,43 +1572,43 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>212</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>213</v>
@@ -1634,43 +1619,43 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>220</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>217</v>
@@ -1681,43 +1666,43 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>221</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>214</v>
@@ -1728,22 +1713,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>222</v>
@@ -1752,19 +1737,19 @@
         <v>223</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>215</v>
@@ -1775,22 +1760,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>219</v>
@@ -1802,16 +1787,16 @@
         <v>216</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>218</v>
@@ -1830,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B148F3-02D7-D940-95BD-CF9D568C1F1D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1858,10 +1843,10 @@
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2094,7 @@
         <v>180</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
@@ -2164,7 +2149,7 @@
         <v>125</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>123</v>
@@ -2191,7 +2176,7 @@
         <v>103</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>105</v>
@@ -2365,7 +2350,7 @@
         <v>70</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
@@ -2460,7 +2445,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2502,7 +2487,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2521,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>65</v>
@@ -2541,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>95</v>
@@ -2916,7 +2901,7 @@
         <v>154</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3004,7 +2989,7 @@
         <v>149</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
@@ -3097,7 +3082,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>

--- a/martin-cs7/build/game_my_interventions.xlsx
+++ b/martin-cs7/build/game_my_interventions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/martin-cs7/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD5E1BC-4557-1449-BA44-3E755423861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6265422-2EED-024D-B87A-3E9F4821B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3780" yWindow="5860" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="26900" yWindow="640" windowWidth="24300" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="312">
   <si>
     <t>type</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Student</t>
-  </si>
-  <si>
-    <t>Single worker</t>
   </si>
   <si>
     <t>single_worker.jpg</t>
@@ -221,9 +218,6 @@
     <t>Water has been greatly contaminated by the operation of the farm. As a result, the natural marine life has been endangered by the release of pathogens and parasites</t>
   </si>
   <si>
-    <t xml:space="preserve">The fish farm attracts the local shark population resulting in  a surfer being attacked and wounded. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The fish farms are operational and working well, creating jobs and adding fish to the local palette. </t>
   </si>
   <si>
@@ -364,9 +358,6 @@
     <t xml:space="preserve">The project is a great success with residents regularly engaging and contributing with the website, to the point that it has become nationally recognised with other towns starting to adopt a similar approach. </t>
   </si>
   <si>
-    <t>The project starts with a lot of fanfare, but the actual development work is passed off to a low-cost bureau who have a lot of trouble interpreting the brief, producing a strange website that serves no-one.</t>
-  </si>
-  <si>
     <t>The project is delivered and residents are aware and using the website. After an unseasonal flood, many residents cite the website as being a great resource for helping them to come to terms with flooding issues.</t>
   </si>
   <si>
@@ -380,12 +371,6 @@
     <t>The digital twin works well and is providing some good insights, not least a predictive flood model for coastal road closures. The municipality is happy and would like to develop it further.</t>
   </si>
   <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing flood protection activities to be far better targeted. Most residents don't notice, but the impact of flooding is decreasing year by year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
     <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them through heat waves and extreme heat.
 Research has shown that people often make bad choices about dealing with heat and will generally make bade decisions when dealing with heat stroke. A website that provides support and information will help residents to become more knowledgeable and make more appropriate decisions.</t>
   </si>
@@ -394,12 +379,6 @@
   </si>
   <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate heat data and models, resulting in a useless tool.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting impossible scenarios. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
-    <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is being able to better cope with long-term heat.</t>
   </si>
   <si>
     <t>CS1</t>
@@ -448,12 +427,6 @@
 This should create a tourist boom and help the local economy by creating jobs to service tourist needs. However, supporting tourists may adversely affect the town by choosing developments that meet tourist, rather than local needs.</t>
   </si>
   <si>
-    <t>The town has become a tourist destination for booze-filled stag and hen parties, making the town a right mess and stretching the emergency services to deal with all the issues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The town has become a very popular summer heat destination, with tourists coming from around the world. This has created a boom for the locals, with many now working in tourism. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Reduced flows downstream have affected local fish population. The local angling community are unhappy </t>
   </si>
   <si>
@@ -471,37 +444,16 @@
 However, customers often lose interest in their consumption once the novelty of a smart meter has worn off.</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is a disaster! The smart metering app is buggy and often shows consumption that is unrelated to actual customer activity, resulting in customer having no confidence in the data. </t>
-  </si>
-  <si>
-    <t>Residents love interacting with their smart water app and  consumption is at an all-time low. As a result, there is greatly decreased demand on the water distribution network allowing the water company to spend more time and resources addressing leakage.</t>
-  </si>
-  <si>
-    <t>The smart water meters have been accepted by residents and water consumption is starting to show a reduction as enthusiastic residents look to minimise their consumption.</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The smart irrigation platform is very buggy and is over watering many crops to the point of causing local floods.</t>
-  </si>
-  <si>
     <t>Smart irrigation systems have been installed, with mixed results. Some farmers are reporting success, but many are reluctant to use them as they feel that they have a much better understanding of crop requirements.</t>
   </si>
   <si>
     <t>The smart irrigation systems are working well, with most farmers reporting both significant reductions in water requirements but also increases in yield. In some cases, marginal land is being returned to use.</t>
   </si>
   <si>
-    <t>The smart irrigation system seem to be working alright, though there have been a few teething issues. Most farmers are reporting that the system is working well for them, though a few have run into issues with over and under watering.</t>
-  </si>
-  <si>
     <t>The crop chosen have proved extremely invasive and has spread to other farms and to peoples' gardens,  outcompeting native species and reducing local biodiversity.</t>
   </si>
   <si>
     <t>The farm is producing an expected return and has created local jobs. The farm operators are careful to consider local biodiversity issues.</t>
-  </si>
-  <si>
-    <t>Although fast growing, the tree species selected for the forest were highly susceptible to a local pest, resulting in many of the trees dying and becoming fire risks.</t>
-  </si>
-  <si>
-    <t>The forests are a great success, providing local cool spaces in the middle of the town and providing opportunities for heat stress residents to 'touch grass' and engage with nature.</t>
   </si>
   <si>
     <t>The forests have been fairly successful and provide interesting talking points for the townspeople, though there are some concerns that the forests are becoming home to rats and feral pets.</t>
@@ -529,22 +481,10 @@
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate biodiversity data and models, resulting in a useless tool.</t>
   </si>
   <si>
-    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting extinction events. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
     <t>The digital twin works well and is providing some good biodiversity strategy insights. The municipality is happy and would like to develop it further.</t>
   </si>
   <si>
     <t>Citizen biodiversity</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The app is developed by a consultancy with little understanding or interest in the project and product a buggy mess that nobody wants to use.</t>
-  </si>
-  <si>
-    <t>The project is a great success, with residents becoming keen citizen scientists monitoring the wildlife they see around them. The data created by the project provides local biodiversity researchers with clear insights into the state of the environment allowing meaningful interventions to be followed.</t>
-  </si>
-  <si>
-    <t>The project is a success, with the app being popular for school projects and wildlife enthusiasts. Although the app doesn't get broad appeal, it has a large enough user base to provide a lot of value.</t>
   </si>
   <si>
     <t>Legally protect local crops</t>
@@ -600,16 +540,7 @@
 The park will develop a breeding programme for rare fauna and look to release animals back into the local community to maintain viable stocks.</t>
   </si>
   <si>
-    <t>The project is a great success, with rare native species being successfully reintroduced back into their natural habitats. The wildlife park visitor centres prove very popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about biodiversity conservation.</t>
-  </si>
-  <si>
     <t>Municipality has been approached a local farming group to legally enshrine their locally produced crops using appropriate EU legislation. This would stop similar crops grown in other regions from using this regions' name.</t>
-  </si>
-  <si>
-    <t>The project is a disaster! The lawyers engaged by the municipality didn't understand the legal complexities of trademarking and lost their case, severely undermining the financial security of the farmers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project is a great success, with the local crop being protected, farmers have built a heritage industry around their crop and the foodstuffs that can be made from it. This has made the town an attraction for tourists and gourmands looking for the 'real thing'. </t>
   </si>
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing biodiversity protection activities to be far better targeted. Most residents don't notice, but biodiversity resilience is growing year on year.</t>
@@ -617,11 +548,6 @@
   <si>
     <t>Municipality has been approached by the local water company to build a large reservoir in a local valley. The reservoir will capture the heavy winter rains, creating a more permeant water supply and reducing water scarcity in the summer months.
 However, flooding the valley will impact local wildlife and stop fish migrations through the river that the reservoir is on.</t>
-  </si>
-  <si>
-    <t>Municipality has been approached by a premier resort developer to build a golf course resort on unused land. 
-The course will attract wealthy golf enthusiasts and will spread wealth around the local area, with jobs and commercial opportunities for locals.
-There is some concern that the course will require significant water resources to keep the course green and that the wealth of the members may stay in the gated community of the resort.</t>
   </si>
   <si>
     <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.
@@ -644,12 +570,6 @@
 The project is generally a low-cost and non-invasive method of reducing urban heat. However, it only really benefits areas with long periods of very hot weather and is counter-productive in areas where solar panels have been installed.</t>
   </si>
   <si>
-    <t>The project is a disaster! The painting contractors have ended up painting everything and destroying much of the towns domestic solar panel installations.</t>
-  </si>
-  <si>
-    <t>The roof painting phase of the project has been completed, but the expected hot weather and associated heat wave is noticeable by its absence. The townspeople reckon the municipality is just wasting money on vanity projects.</t>
-  </si>
-  <si>
     <t>The roofs have been painted just in time for the summer heat wave and are having the desired effect. Rooms in painted houses feel cooler and the surrounding streets are far more pleasant to be in.</t>
   </si>
   <si>
@@ -669,10 +589,6 @@
   </si>
   <si>
     <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
-  </si>
-  <si>
-    <t>Municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
-The proposal is positive​ly regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
   </si>
   <si>
     <t xml:space="preserve">The municipality is looking to ship in bottled water from another country in order to ameliorate problems with drinking water supply during drought conditions.
@@ -821,19 +737,9 @@
 The digital twin will combine real-world data with simulation models to create insights, so it will be largely dependent on the quality of data collected and the accuracy of modelling.</t>
   </si>
   <si>
-    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them support biodiverrsity.
-Research has shown that people often make poor biodiversity decisions due to a lack of knowledge and suitable support. A website that provides support and information will help residents to become more knowledgeable.</t>
-  </si>
-  <si>
-    <t>The project is delivered and residents are aware and using the website. After an expected biodiversity event, many residents cite the website as being a great resource for helping them to come to terms with  issues.</t>
-  </si>
-  <si>
     <t>The project is handed off to a consultancy group who appear to have strange views about what constitutes appropriate drought data and models, resulting in a useless tool.</t>
   </si>
   <si>
-    <t xml:space="preserve">The digital twin generally works, but the AI in it seem to produce a lot of nightmare fuel, often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
-  </si>
-  <si>
     <t>The digital twin works well and is providing some good insights, not least a model for forecasting water scarcity. The municipality is happy and would like to develop it further.</t>
   </si>
   <si>
@@ -841,10 +747,6 @@
   </si>
   <si>
     <t>student2.jpg</t>
-  </si>
-  <si>
-    <t>The town appears to be affected by climate change that the rainfall has reduced significantly. Resulting in the town becoming drier and browner,and making water a scarse resource.
-Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
   </si>
   <si>
     <t>Minor Resilience Challenge</t>
@@ -955,6 +857,191 @@
   </si>
   <si>
     <t>Whilst there are some impacts to the event,  they tend to be small in nature and there are no major causalities, this is a huge relief for the local businesses and towns people. People feel that the municipality has 'got it right' with their economic resilience planning.</t>
+  </si>
+  <si>
+    <t>Monofarm Outcomes</t>
+  </si>
+  <si>
+    <t>Citizen biodiversity Outcomes</t>
+  </si>
+  <si>
+    <t>Protect local biodiversity Outcomes</t>
+  </si>
+  <si>
+    <t>Legally protect local crops Outcomes</t>
+  </si>
+  <si>
+    <t>Biodiversity knowledge base Outcomes</t>
+  </si>
+  <si>
+    <t>Biodiversity digital twin Outcomes</t>
+  </si>
+  <si>
+    <t>Reservoir construction Outcomes</t>
+  </si>
+  <si>
+    <t>golf resort development Outcomes</t>
+  </si>
+  <si>
+    <t>Water delivery service Outcomes</t>
+  </si>
+  <si>
+    <t>smart water meter Outcomes</t>
+  </si>
+  <si>
+    <t>Smart irrigation programme Outcomes</t>
+  </si>
+  <si>
+    <t>Drought dashboard Outcomes</t>
+  </si>
+  <si>
+    <t>Drought digital twin Outcomes</t>
+  </si>
+  <si>
+    <t>Sea wall construction Outcomes</t>
+  </si>
+  <si>
+    <t>Out-of-town leisure resort Outcomes</t>
+  </si>
+  <si>
+    <t>Nature-based flood protection Outcomes</t>
+  </si>
+  <si>
+    <t>Return seaside golf course to sea Outcomes</t>
+  </si>
+  <si>
+    <t>Flood plain management Outcomes</t>
+  </si>
+  <si>
+    <t>Flood support website Outcomes</t>
+  </si>
+  <si>
+    <t>Flooding digital twin Outcomes</t>
+  </si>
+  <si>
+    <t>Cool roofs Outcomes</t>
+  </si>
+  <si>
+    <t>Install firebreaks Outcomes</t>
+  </si>
+  <si>
+    <t>Install green walls Outcomes</t>
+  </si>
+  <si>
+    <t>Miyawaki Forest Outcomes</t>
+  </si>
+  <si>
+    <t>Heat tourism Outcomes</t>
+  </si>
+  <si>
+    <t>Heat knowledge base Outcomes</t>
+  </si>
+  <si>
+    <t>Heat digital twin Outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! The app is buggy and often shows consumption that is unrelated to actual customer activity, resulting in loss of customer confidence. </t>
+  </si>
+  <si>
+    <t>The smart water meters have been accepted by residents and water consumption is starting to show a reduction as enthusiastic residents look to minimise consumption.</t>
+  </si>
+  <si>
+    <t>Residents love the app and consumption is at an all-time low. This allows the water company to spend more time and resources addressing leakage.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The smart irrigation platform is very buggy and is over-watering to the point of causing local flooding.</t>
+  </si>
+  <si>
+    <t>The smart irrigation system seem to be working alright, though there have been a few teething issues. Most farmers are reporting that the system is working well for them, though a few have run into issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is well-managed with a suitable design bureau delivering a great website. However, the site isn't advertised well, with few residents event being aware that the site event exists. </t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing flood protection activities to be far better targeted. Most residents don't notice, but the impact of flooding is decreasing yearly.</t>
+  </si>
+  <si>
+    <t>The roof painting phase of the project has been completed, but the expected heat wave is noticeable by its absence. The townspeople reckon the municipality is just wasting money on vanity projects.</t>
+  </si>
+  <si>
+    <t>Although fast growing, the tree species selected for the forest were susceptible to a local pest, resulting in many of the trees dying and becoming fire risks.</t>
+  </si>
+  <si>
+    <t>The forests are a great success, providing local cool spaces in the middle of the town and providing opportunities for heat stress residents to engage with nature.</t>
+  </si>
+  <si>
+    <t>The town has become a tourist destination for booze-filled stag and hen parties, making the town a right mess and stretching the emergency services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The town has become a popular destination, with tourists coming from around the world. This has created a boom for the locals, with many now working in tourism. </t>
+  </si>
+  <si>
+    <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is coping with long-term heat.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The app is developed by a consultancy with little understanding or interest in the project and product a buggy mess that nobody wants.</t>
+  </si>
+  <si>
+    <t>The project is a success, with the app being popular for school projects and wildlife enthusiasts. The app is niche, but provides a lot of value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a great success, with the local crop being protected, farmers have built a popular heritage industry around their crop and the foodstuffs that can be made from it. </t>
+  </si>
+  <si>
+    <t>The project is delivered and residents are aware and using the website. After an expected biodiversity event, many residents cite the website as being a great resource for helping to deal with  issues.</t>
+  </si>
+  <si>
+    <t>The project starts with a lot of fanfare, but the work is passed off to a low-cost bureau who have issues and produce a strange website that serves no-one.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The painters have ended up painting everything and damaging many roof-top solar panels.</t>
+  </si>
+  <si>
+    <t>The project is a great success, with residents keen to monitor the wildlife they see around them. The app's data provides local biodiversity researchers with clear insights into the state of the environment allowing for meaningful interventions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fish farm attracts a marauding shark pod that attacks a local surfer. </t>
+  </si>
+  <si>
+    <t>Fish farm Outcomes</t>
+  </si>
+  <si>
+    <t>The project is a great success, with the success reintroduction of rare species. The park is popular with both locals and tourists, offering both the opportunity to see rare animals and to learn about conservation.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The lawyers engaged didn't understand trademarking and lost their case, severely undermining the financial security of the farmers.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached to develop a community website that will provide residents with useful information and support to help them support biodiversity.
+Research has shown that people often make poor biodiversity decisions due to a lack of knowledge and suitable support. A website that provides support and information will help residents to become more knowledgeable.</t>
+  </si>
+  <si>
+    <t>Municipality has been approached by a retail company to develop a large out of town retail and leisure park on unused land. 
+The proposal is well regarded as it will provide long term employment for the area​ with many new jobs and attract a lot of visitors to the town. However, it's likely that the town centre will be hit financially with shoppers preferring to use the new out of town shops. In addition, the preferred development site is a meadow that's popular with the locals.</t>
+  </si>
+  <si>
+    <t>The town appears to be affected by climate change that the rainfall has reduced significantly. Resulting in the town becoming drier and browner, and making water a scarce resource.
+Residents and businesses are now looking to move away to areas that are less harsh and have a better quality of life.</t>
+  </si>
+  <si>
+    <t>Young Worker</t>
+  </si>
+  <si>
+    <t>Municipality has been approached by a premier resort developer to build a golf course resort on unused land. 
+The course will attract wealthy golf enthusiasts and will spread wealth around the local area, with jobs and commercial opportunities for locals.
+There is some concern that the course will require significant water resources to keep the course green and that the wealth of the members may stay in the gated community of the resort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting droughts during rain storms. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting impossible tsunamis on the coast. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting impossible scenarios. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting extinction events. This makes it hard to trust the twin's outputs. </t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1485,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,65 +1514,65 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1498,11 +1585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1630,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1572,46 +1659,46 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1619,46 +1706,46 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1666,46 +1753,46 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -1713,46 +1800,46 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1760,46 +1847,46 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1827,26 +1914,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1857,13 +1944,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1873,15 +1960,16 @@
     <col min="3" max="3" width="82.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10.83203125" style="12"/>
-    <col min="10" max="10" width="42.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="46.83203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="50.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="38.83203125" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="8"/>
+    <col min="10" max="10" width="14.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="46.83203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>14</v>
@@ -1909,31 +1997,34 @@
       <c r="I1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -1951,31 +2042,34 @@
       <c r="I2" s="12">
         <v>0</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -1993,34 +2087,37 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>146</v>
+      <c r="J3" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -2038,33 +2135,36 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
@@ -2082,33 +2182,36 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2126,33 +2229,36 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E7" s="12">
         <v>-1</v>
@@ -2170,30 +2276,33 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="O7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2212,30 +2321,33 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2254,30 +2366,33 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>186</v>
+        <v>307</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2296,30 +2411,33 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2338,30 +2456,33 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2380,30 +2501,33 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2422,30 +2546,33 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>143</v>
+        <v>282</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2464,30 +2591,33 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>106</v>
+        <v>263</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+      <c r="O14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2506,30 +2636,33 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="12">
@@ -2548,30 +2681,33 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="O16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2590,30 +2726,33 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2632,30 +2771,33 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="O18" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2674,30 +2816,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="O19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="12">
@@ -2716,33 +2861,36 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="12">
         <v>-1</v>
@@ -2760,33 +2908,36 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="K21" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="O21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="12">
         <v>-1</v>
@@ -2804,33 +2955,36 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>109</v>
+        <v>271</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2848,30 +3002,33 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>193</v>
+        <v>297</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -2889,33 +3046,36 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2933,33 +3093,36 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -2977,30 +3140,33 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="102" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -3018,30 +3184,33 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E28" s="12">
         <v>-1</v>
@@ -3059,30 +3228,33 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="O28" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3100,22 +3272,26 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>65</v>
+        <v>291</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/martin-cs7/build/game_my_interventions.xlsx
+++ b/martin-cs7/build/game_my_interventions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/martin-cs7/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6265422-2EED-024D-B87A-3E9F4821B5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E3277-B90E-7F4E-A0BD-10C92FA177A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26900" yWindow="640" windowWidth="24300" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
@@ -407,9 +407,6 @@
     <t>Create a biodiversity knowledge base</t>
   </si>
   <si>
-    <t xml:space="preserve">It's a disaster,  the water did not pass quality assurance and con not be consumed.  Instead the costly water is just being used for non-human use. </t>
-  </si>
-  <si>
     <t>Despite a hot and dry summer, there are adequate water reserves and tourism benefits.</t>
   </si>
   <si>
@@ -1042,6 +1039,9 @@
   </si>
   <si>
     <t xml:space="preserve">The digital twin generally works, but its AI seems to produce a lot of nightmare fuel, often predicting extinction events. This makes it hard to trust the twin's outputs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a disaster,  the water did not pass quality assurance and can not be consumed.  Instead the costly water is just being used for non-human use. </t>
   </si>
 </sst>
 </file>
@@ -1514,18 +1514,18 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>22</v>
@@ -1536,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>24</v>
@@ -1547,7 +1547,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>26</v>
@@ -1558,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>28</v>
@@ -1569,7 +1569,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>30</v>
@@ -1659,46 +1659,46 @@
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="E2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1706,46 +1706,46 @@
         <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="221" x14ac:dyDescent="0.2">
@@ -1753,46 +1753,46 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="238" x14ac:dyDescent="0.2">
@@ -1800,46 +1800,46 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="H5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="204" x14ac:dyDescent="0.2">
@@ -1847,46 +1847,46 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="D6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="L6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1947,10 +1947,10 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2024,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="12">
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>58</v>
@@ -2069,7 +2069,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="12">
@@ -2088,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>61</v>
@@ -2111,10 +2111,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>116</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>62</v>
@@ -2161,7 +2161,7 @@
         <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>116</v>
@@ -2182,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
@@ -2205,10 +2205,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>116</v>
@@ -2229,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>64</v>
@@ -2255,7 +2255,7 @@
         <v>118</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>116</v>
@@ -2276,16 +2276,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>101</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>103</v>
@@ -2302,7 +2302,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="12">
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>63</v>
@@ -2347,7 +2347,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="12">
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>66</v>
@@ -2392,7 +2392,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="12">
@@ -2411,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>65</v>
@@ -2437,7 +2437,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="12">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>67</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>68</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="153" x14ac:dyDescent="0.2">
@@ -2482,7 +2482,7 @@
         <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="12">
@@ -2501,19 +2501,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="L12" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>69</v>
@@ -2527,7 +2527,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="12">
@@ -2546,19 +2546,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K13" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>70</v>
@@ -2572,7 +2572,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="12">
@@ -2591,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>104</v>
@@ -2617,7 +2617,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="12">
@@ -2636,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>63</v>
@@ -2659,7 +2659,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>93</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>94</v>
@@ -2707,7 +2707,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="12">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>72</v>
@@ -2752,7 +2752,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="12">
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>76</v>
@@ -2797,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="12">
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>80</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>81</v>
@@ -2861,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>96</v>
@@ -2908,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>101</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>106</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>107</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>63</v>
@@ -2981,7 +2981,7 @@
         <v>114</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>111</v>
@@ -3002,19 +3002,19 @@
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>85</v>
@@ -3028,7 +3028,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="12">
         <v>1</v>
@@ -3046,22 +3046,22 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="O24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3072,7 +3072,7 @@
         <v>113</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>111</v>
@@ -3093,13 +3093,13 @@
         <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>86</v>
@@ -3119,7 +3119,7 @@
         <v>112</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>111</v>
@@ -3140,22 +3140,22 @@
         <v>2</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K26" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="O26" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.2">
@@ -3166,7 +3166,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="12">
         <v>3</v>
@@ -3184,19 +3184,19 @@
         <v>-2</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K27" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="N27" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>89</v>
@@ -3228,10 +3228,10 @@
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>101</v>
@@ -3254,7 +3254,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="12">
         <v>-1</v>
@@ -3272,19 +3272,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>110</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>63</v>

--- a/martin-cs7/build/game_my_interventions.xlsx
+++ b/martin-cs7/build/game_my_interventions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/martin-cs7/build/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61DC9C-561E-DA4F-94B4-29AF7E0702F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28740" windowHeight="12750"/>
+    <workbookView xWindow="1540" yWindow="6280" windowWidth="40780" windowHeight="21420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="persona" sheetId="3" r:id="rId1"/>
@@ -538,9 +544,6 @@
     <t>Reservoir construction Outcomes</t>
   </si>
   <si>
-    <t>The dam of the reservoir was made cheaply. In a heavy rainfall event the dam breaks, causing the water in the reservoir to flow downstream. Much of the town has been washed away.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reduced flows downstream have affected local fish population. The local angling community are unhappy </t>
   </si>
   <si>
@@ -614,9 +617,6 @@
   </si>
   <si>
     <t>smart water meter Outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project is a disaster! The app is buggy and often shows consumption that is unrelated to actual customer activity, resulting in loss of customer confidence. </t>
   </si>
   <si>
     <t>Meters have been installed, but the public response is apathetic. There is a perception that the meters are part of a 'surveillance society' that will use water consumption data to clamp down on civil liberties.</t>
@@ -1021,18 +1021,18 @@
   <si>
     <t>The digital twin is providing the municipality with great insights and predictions, allowing heat protection activities to be far better targeted. Most residents don't notice, but the town is coping with long-term heat.</t>
   </si>
+  <si>
+    <t>The project is a disaster! The dam has been successfully constructed, but it's empty! It turns out that the municipality signed the wrong water ordinances and the expected inflowing rives are flowing elsewhere.</t>
+  </si>
+  <si>
+    <t>The project is a disaster! The municipality advocated for the smart meter app, but it turned to be full of spyware, collecting customer details and making unauthorised charges on customer accounts.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1072,352 +1072,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1425,253 +1094,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1713,62 +1140,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2046,26 +1432,26 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="39.6625" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="25.5" spans="1:4">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="250.5" spans="2:4">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2090,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="280" customHeight="1" spans="2:4">
+    <row r="3" spans="1:4" ht="280" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="203.25" spans="2:4">
+    <row r="4" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
@@ -2112,7 +1498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="250.5" spans="2:4">
+    <row r="5" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="233.25" spans="2:4">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="272" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="195" spans="2:4">
+    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
@@ -2148,39 +1534,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="9"/>
-    <col min="2" max="2" width="22.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="30.1625" customWidth="1"/>
-    <col min="4" max="4" width="37.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
     <col min="5" max="7" width="22.5" style="10" customWidth="1"/>
-    <col min="8" max="10" width="23.6625" customWidth="1"/>
-    <col min="11" max="11" width="23.6625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="31.8333333333333" customWidth="1"/>
-    <col min="13" max="13" width="28.6625" customWidth="1"/>
-    <col min="14" max="15" width="23.6625" customWidth="1"/>
+    <col min="8" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" customWidth="1"/>
+    <col min="14" max="15" width="23.6640625" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="25.5" spans="1:15">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="136.5" spans="1:15">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -2274,7 +1657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="156" spans="1:15">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -2321,7 +1704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="156" spans="1:15">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>61</v>
       </c>
@@ -2368,7 +1751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="156" spans="1:15">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>72</v>
       </c>
@@ -2415,7 +1798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="136.5" spans="1:15">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>83</v>
       </c>
@@ -2465,8 +1848,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;11&amp;KFF8C00 RESTRICTED&amp;1#
-</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;11&amp;KFF8C00 RESTRICTED&amp;1#</oddHeader>
     <oddFooter>&amp;C
 &amp;1#&amp;"Calibri"&amp;11&amp;KFF8C00 RESTRICTED</oddFooter>
   </headerFooter>
@@ -2474,21 +1856,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2496,7 +1877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" ht="156" spans="1:2">
+    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2504,7 +1885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" ht="39" spans="1:2">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2515,40 +1896,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.8333333333333" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82.6625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="9" width="10.8333333333333" style="3"/>
-    <col min="10" max="10" width="14.6625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="42.6625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="46.8333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="42.6625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="50.6625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.8333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="2"/>
+    <col min="5" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="14.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="46.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25.5" spans="1:15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="117" spans="1:15">
+    <row r="2" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2640,7 +2018,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" ht="78" spans="1:15">
+    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" ht="78" spans="1:15">
+    <row r="4" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2732,7 +2110,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" ht="58.5" spans="1:15">
+    <row r="5" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -2779,7 +2157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" ht="58.5" spans="1:15">
+    <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -2826,7 +2204,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" ht="78" spans="1:15">
+    <row r="7" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -2873,7 +2251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" ht="97.5" spans="1:15">
+    <row r="8" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -2918,7 +2296,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" ht="78" spans="1:15">
+    <row r="9" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -2947,31 +2325,31 @@
       <c r="J9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" ht="117" spans="1:15">
+    </row>
+    <row r="10" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3">
@@ -2990,33 +2368,33 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" ht="117" spans="1:15">
+    </row>
+    <row r="11" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3">
@@ -3035,33 +2413,33 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" ht="117" spans="1:15">
+    </row>
+    <row r="12" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="3">
@@ -3080,33 +2458,33 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" ht="78" spans="1:15">
+    </row>
+    <row r="13" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="3">
@@ -3125,33 +2503,33 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" ht="78" spans="1:15">
+    </row>
+    <row r="14" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="3">
@@ -3170,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>145</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>148</v>
@@ -3188,15 +2566,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" ht="97.5" spans="1:15">
+    <row r="15" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3">
@@ -3215,33 +2593,33 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" ht="97.5" spans="1:15">
+    <row r="16" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3">
@@ -3260,33 +2638,33 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" ht="110.25" spans="1:15">
+    </row>
+    <row r="17" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3">
@@ -3305,33 +2683,33 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" ht="136" customHeight="1" spans="1:15">
+    </row>
+    <row r="18" spans="1:15" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="3">
@@ -3350,33 +2728,33 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" ht="97.5" spans="1:15">
+    </row>
+    <row r="19" spans="1:15" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="3">
@@ -3395,33 +2773,33 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="O19" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" ht="127.5" spans="1:15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3">
@@ -3440,36 +2818,36 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" ht="78" spans="1:15">
+    </row>
+    <row r="21" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -3487,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>145</v>
@@ -3496,7 +2874,7 @@
         <v>146</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>148</v>
@@ -3505,18 +2883,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" ht="97.5" spans="1:15">
+    <row r="22" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -3534,36 +2912,36 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" ht="78" spans="1:15">
+    <row r="23" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -3581,33 +2959,33 @@
         <v>3</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" ht="97.5" spans="1:15">
+    </row>
+    <row r="24" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -3625,36 +3003,36 @@
         <v>1</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" ht="78" spans="1:15">
+    </row>
+    <row r="25" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -3672,36 +3050,36 @@
         <v>2</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" ht="134.25" spans="1:15">
+    </row>
+    <row r="26" spans="1:15" ht="153" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3719,33 +3097,33 @@
         <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" ht="97.5" spans="1:15">
+    </row>
+    <row r="27" spans="1:15" ht="102" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -3763,33 +3141,33 @@
         <v>-2</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" ht="99" customHeight="1" spans="1:15">
+    </row>
+    <row r="28" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -3807,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>145</v>
@@ -3816,7 +3194,7 @@
         <v>146</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>148</v>
@@ -3825,15 +3203,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" ht="97.5" spans="1:15">
+    <row r="29" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -3851,19 +3229,19 @@
         <v>3</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>156</v>
@@ -3872,6 +3250,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>